--- a/Inputs/Now_Health_Worldcare_UAE/benefits.xlsx
+++ b/Inputs/Now_Health_Worldcare_UAE/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="103">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -309,12 +309,6 @@
     <t xml:space="preserve">Covered subject to pre-authorization (Included with Repatriation benefit)</t>
   </si>
   <si>
-    <t xml:space="preserve">Repatriation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered subject to pre-authorization (Included with Emergency Evacuation benefit)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Virtual / Tele Doctor</t>
   </si>
   <si>
@@ -351,6 +345,9 @@
     <t xml:space="preserve">Copays</t>
   </si>
   <si>
+    <t xml:space="preserve">IP-NIL per year deductible (default)/IP-USD 150 per year deductible/IP-USD 250 per year deductible/IP-USD 500 per year deductible/IP-USD 1,000 per year deductible/IP-USD 2,500 per year deductible/IP-USD 5,000 per year deductible/IP-USD 10,000 per year deductible/IP-USD 15,000 per year deductible/OP-NIL per visit excess/OP-10% per visit co-pay/OP-20% per visit co-pay</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP-NIL per year deductible (default)/IP-USD 150 per year deductible/IP-USD 250 per year deductible/IP-USD 500 per year deductible/IP-USD 1,000 per year deductible/IP-USD 2,500 per year deductible/IP-USD 5,000 per year deductible/IP-USD 10,000 per year deductible/IP-USD 15,000 per year deductible/OP-NIL per visit excess/OP-10% per visit co-pay/OP-20% per visit co-pay/OP-USD 25 per visit excess/OP-USD 15 per visit excess</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t xml:space="preserve">$-OP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIL per visit excess-10% per visit co-pay-20% per visit co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">NIL per visit excess-10% per visit co-pay-20% per visit co-pay-USD 25 per visit excess-USD 15 per visit excess</t>
@@ -374,7 +374,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -436,12 +436,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
@@ -455,12 +449,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -590,7 +578,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -627,8 +615,68 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -636,94 +684,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -731,19 +711,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -824,13 +804,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.49"/>
@@ -911,13 +891,13 @@
       <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -925,13 +905,13 @@
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="36.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -940,16 +920,16 @@
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -960,16 +940,16 @@
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -980,16 +960,16 @@
       <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -997,13 +977,13 @@
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -1012,16 +992,16 @@
       <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1032,16 +1012,16 @@
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1052,16 +1032,16 @@
       <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1072,16 +1052,16 @@
       <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1092,16 +1072,16 @@
       <c r="B14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1109,13 +1089,13 @@
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -1124,16 +1104,16 @@
       <c r="B16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1144,16 +1124,16 @@
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1164,16 +1144,16 @@
       <c r="B18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1184,16 +1164,16 @@
       <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1204,16 +1184,16 @@
       <c r="B20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1224,16 +1204,16 @@
       <c r="B21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1241,13 +1221,13 @@
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
@@ -1256,16 +1236,16 @@
       <c r="B23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1276,16 +1256,16 @@
       <c r="B24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1296,16 +1276,16 @@
       <c r="B25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1316,16 +1296,16 @@
       <c r="B26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1333,13 +1313,13 @@
       <c r="A27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
@@ -1348,16 +1328,16 @@
       <c r="B28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1368,16 +1348,16 @@
       <c r="B29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1385,13 +1365,13 @@
       <c r="A30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="17"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
@@ -1400,16 +1380,16 @@
       <c r="B31" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1420,16 +1400,16 @@
       <c r="B32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1440,16 +1420,16 @@
       <c r="B33" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1460,16 +1440,16 @@
       <c r="B34" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1480,138 +1460,138 @@
       <c r="B35" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="15" t="s">
+      <c r="B38" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="30"/>
+      <c r="C38" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>87</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="31" t="n">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="C42" s="29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D42" s="29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E42" s="29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F42" s="29" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,119 +1599,99 @@
         <v>21</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D43" s="31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E43" s="31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F43" s="31" t="n">
-        <v>0.03</v>
+        <v>92</v>
+      </c>
+      <c r="C43" s="29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D43" s="29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E43" s="29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F43" s="29" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D44" s="31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E44" s="31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F44" s="31" t="n">
-        <v>0.05</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" customFormat="false" ht="90.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="16"/>
-    </row>
-    <row r="47" customFormat="false" ht="90.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
+      <c r="D46" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="35" t="s">
+      <c r="B47" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="36" t="s">
+      <c r="C47" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="38" t="s">
+      <c r="B48" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="37" t="s">
+      <c r="C48" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="D48" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="E48" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="38" t="s">
+      <c r="F48" s="36" t="s">
         <v>102</v>
       </c>
     </row>
